--- a/results/2nd_round/2nd_all_means.xlsx
+++ b/results/2nd_round/2nd_all_means.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\amandalin047\2nd_round\results\2nd_round\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\amandalin047\july_ratings\results\2nd_round\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FB92D8-843E-4CAB-BFA3-AA462DB99005}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8613B49-1EAE-48CF-8F96-F740ACAD3C31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1885,7 +1885,7 @@
   <dimension ref="A1:G481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J1" sqref="J1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1924,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.117647058823529</v>
+        <v>3.2666666666666671</v>
       </c>
       <c r="E2">
-        <v>4.2941176470588234</v>
+        <v>4.5333333333333332</v>
       </c>
       <c r="F2">
         <v>4.75</v>
@@ -1947,10 +1947,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.4117647058823528</v>
+        <v>3.4666666666666668</v>
       </c>
       <c r="E3">
-        <v>3.9411764705882359</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>7.25</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>3.9333333333333331</v>
       </c>
       <c r="E4">
-        <v>5.2352941176470589</v>
+        <v>5.2</v>
       </c>
       <c r="F4">
         <v>6.5625</v>
@@ -1993,10 +1993,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.0588235294117636</v>
+        <v>4.1333333333333337</v>
       </c>
       <c r="E5">
-        <v>5.7058823529411766</v>
+        <v>5.7333333333333334</v>
       </c>
       <c r="F5">
         <v>5.9375</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.5882352941176467</v>
+        <v>5.5333333333333332</v>
       </c>
       <c r="E6">
-        <v>5.882352941176471</v>
+        <v>5.8</v>
       </c>
       <c r="F6">
         <v>2.3125</v>
@@ -2039,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>3.8666666666666671</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3.9333333333333331</v>
       </c>
       <c r="F7">
         <v>2.75</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.2941176470588234</v>
+        <v>4.1333333333333337</v>
       </c>
       <c r="E8">
-        <v>5.2352941176470589</v>
+        <v>5.2</v>
       </c>
       <c r="F8">
         <v>4.25</v>
@@ -2085,10 +2085,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.5294117647058822</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>5.8666666666666663</v>
       </c>
       <c r="F9">
         <v>5.1875</v>
@@ -2108,10 +2108,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.2941176470588229</v>
+        <v>1.8666666666666669</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="F10">
         <v>2.5625</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.2352941176470589</v>
+        <v>5.4666666666666668</v>
       </c>
       <c r="E11">
-        <v>5.4117647058823533</v>
+        <v>5.8</v>
       </c>
       <c r="F11">
         <v>5.5625</v>
@@ -2154,10 +2154,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.294117647058824</v>
+        <v>1.2666666666666671</v>
       </c>
       <c r="E12">
-        <v>1.470588235294118</v>
+        <v>1.466666666666667</v>
       </c>
       <c r="F12">
         <v>2.875</v>
@@ -2177,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.6470588235294121</v>
+        <v>3.6</v>
       </c>
       <c r="E13">
-        <v>4.9411764705882364</v>
+        <v>4.8</v>
       </c>
       <c r="F13">
         <v>4.875</v>
@@ -2200,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.4705882352941182</v>
+        <v>3.4</v>
       </c>
       <c r="E14">
-        <v>4.0588235294117636</v>
+        <v>4.2</v>
       </c>
       <c r="F14">
         <v>2.6875</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="E15">
-        <v>5.7647058823529411</v>
+        <v>5.9333333333333336</v>
       </c>
       <c r="F15">
         <v>2.4375</v>
@@ -2246,10 +2246,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.2352941176470589</v>
+        <v>5.1333333333333337</v>
       </c>
       <c r="E16">
-        <v>5.7058823529411766</v>
+        <v>5.6</v>
       </c>
       <c r="F16">
         <v>4.4375</v>
@@ -2269,10 +2269,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.7058823529411766</v>
+        <v>4.8</v>
       </c>
       <c r="E17">
-        <v>6.1764705882352944</v>
+        <v>6.1333333333333337</v>
       </c>
       <c r="F17">
         <v>6.5625</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.1764705882352939</v>
+        <v>2.2666666666666671</v>
       </c>
       <c r="E18">
-        <v>2.7058823529411771</v>
+        <v>2.8666666666666671</v>
       </c>
       <c r="F18">
         <v>2.125</v>
@@ -2315,10 +2315,10 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.2941176470588234</v>
+        <v>3.9333333333333331</v>
       </c>
       <c r="E19">
-        <v>5.2941176470588234</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="F19">
         <v>2.8125</v>
@@ -2338,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.8235294117647061</v>
+        <v>3.8</v>
       </c>
       <c r="E20">
-        <v>5.1764705882352944</v>
+        <v>5.1333333333333337</v>
       </c>
       <c r="F20">
         <v>4.5625</v>
@@ -2361,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.5882352941176472</v>
+        <v>2.7333333333333329</v>
       </c>
       <c r="E21">
-        <v>3.0588235294117641</v>
+        <v>3.2666666666666671</v>
       </c>
       <c r="F21">
         <v>5.125</v>
@@ -2384,10 +2384,10 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.6470588235294121</v>
+        <v>5.5333333333333332</v>
       </c>
       <c r="E22">
-        <v>6.0588235294117636</v>
+        <v>5.9333333333333336</v>
       </c>
       <c r="F22">
         <v>6.8125</v>
@@ -2407,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.0588235294117636</v>
+        <v>3.9333333333333331</v>
       </c>
       <c r="E23">
-        <v>5.117647058823529</v>
+        <v>4.9333333333333336</v>
       </c>
       <c r="F23">
         <v>5.1875</v>
@@ -2430,10 +2430,10 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.2941176470588234</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>4.9333333333333336</v>
       </c>
       <c r="F24">
         <v>5.9375</v>
@@ -2453,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.4117647058823528</v>
+        <v>2.5333333333333332</v>
       </c>
       <c r="E25">
-        <v>3.2941176470588229</v>
+        <v>3.6</v>
       </c>
       <c r="F25">
         <v>6.125</v>
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>4.117647058823529</v>
+        <v>4.0666666666666664</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>4.8666666666666663</v>
       </c>
       <c r="F26">
         <v>3.875</v>
@@ -2499,10 +2499,10 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>4.7647058823529411</v>
+        <v>4.4666666666666668</v>
       </c>
       <c r="E27">
-        <v>5.8235294117647056</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="F27">
         <v>4.9375</v>
@@ -2522,10 +2522,10 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>2.7647058823529411</v>
+        <v>2.8</v>
       </c>
       <c r="E28">
-        <v>4.4117647058823533</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="F28">
         <v>1.5625</v>
@@ -2545,10 +2545,10 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>4.0588235294117636</v>
+        <v>4.0666666666666664</v>
       </c>
       <c r="E29">
-        <v>5.117647058823529</v>
+        <v>5.2666666666666666</v>
       </c>
       <c r="F29">
         <v>5.875</v>
@@ -2568,10 +2568,10 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>4.0588235294117636</v>
+        <v>4.2666666666666666</v>
       </c>
       <c r="E30">
-        <v>4.7647058823529411</v>
+        <v>5</v>
       </c>
       <c r="F30">
         <v>3.375</v>
@@ -2591,10 +2591,10 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>3.7647058823529411</v>
+        <v>3.6</v>
       </c>
       <c r="E31">
-        <v>5.5882352941176467</v>
+        <v>5.5333333333333332</v>
       </c>
       <c r="F31">
         <v>6.1875</v>
@@ -2614,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>5.4705882352941178</v>
+        <v>5.4</v>
       </c>
       <c r="E32">
-        <v>6.0588235294117636</v>
+        <v>5.9333333333333336</v>
       </c>
       <c r="F32">
         <v>5.75</v>
@@ -2637,10 +2637,10 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>4.8235294117647056</v>
+        <v>4.8666666666666663</v>
       </c>
       <c r="E33">
-        <v>6.1764705882352944</v>
+        <v>6.2</v>
       </c>
       <c r="F33">
         <v>4.625</v>
@@ -2663,7 +2663,7 @@
         <v>3</v>
       </c>
       <c r="E34">
-        <v>3.7058823529411771</v>
+        <v>3.6</v>
       </c>
       <c r="F34">
         <v>2.5</v>
@@ -2683,10 +2683,10 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>4.0588235294117636</v>
+        <v>4.1333333333333337</v>
       </c>
       <c r="E35">
-        <v>5.1764705882352944</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="F35">
         <v>3.8125</v>
@@ -2706,10 +2706,10 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>2.7647058823529411</v>
+        <v>2.8</v>
       </c>
       <c r="E36">
-        <v>4.6470588235294121</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="F36">
         <v>2.25</v>
@@ -2729,10 +2729,10 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>3.1333333333333329</v>
       </c>
       <c r="E37">
-        <v>3.4705882352941182</v>
+        <v>3.6</v>
       </c>
       <c r="F37">
         <v>4</v>
@@ -2752,10 +2752,10 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>5.117647058823529</v>
+        <v>4.8666666666666663</v>
       </c>
       <c r="E38">
-        <v>5.0588235294117636</v>
+        <v>4.8</v>
       </c>
       <c r="F38">
         <v>6.3125</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>2.3529411764705879</v>
+        <v>2.2666666666666671</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>2.9333333333333331</v>
       </c>
       <c r="F39">
         <v>6.5625</v>
@@ -2798,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>4.5294117647058822</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="E40">
-        <v>5.2941176470588234</v>
+        <v>5.2</v>
       </c>
       <c r="F40">
         <v>6.5625</v>
@@ -2821,10 +2821,10 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>4.2941176470588234</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>5.5882352941176467</v>
+        <v>5.4</v>
       </c>
       <c r="F41">
         <v>4.8125</v>
@@ -2847,7 +2847,7 @@
         <v>5</v>
       </c>
       <c r="E42">
-        <v>5.7058823529411766</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="F42">
         <v>1.875</v>
@@ -2867,10 +2867,10 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>4.5294117647058822</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E43">
-        <v>5.8235294117647056</v>
+        <v>5.8666666666666663</v>
       </c>
       <c r="F43">
         <v>6.5625</v>
@@ -2890,10 +2890,10 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>4.4705882352941178</v>
+        <v>4.2</v>
       </c>
       <c r="E44">
-        <v>6.117647058823529</v>
+        <v>6</v>
       </c>
       <c r="F44">
         <v>4.75</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>3.3529411764705879</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="E45">
         <v>5</v>
@@ -2936,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>5.7058823529411766</v>
+        <v>5.5333333333333332</v>
       </c>
       <c r="E46">
-        <v>6.3529411764705879</v>
+        <v>6.2666666666666666</v>
       </c>
       <c r="F46">
         <v>4.4375</v>
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1.7647058823529409</v>
+        <v>1.8666666666666669</v>
       </c>
       <c r="E47">
-        <v>1.882352941176471</v>
+        <v>2</v>
       </c>
       <c r="F47">
         <v>4.8125</v>
@@ -2982,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>5.0588235294117636</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="E48">
         <v>6</v>
@@ -3005,10 +3005,10 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>3.3529411764705879</v>
+        <v>3.6</v>
       </c>
       <c r="E49">
-        <v>4.882352941176471</v>
+        <v>5.1333333333333337</v>
       </c>
       <c r="F49">
         <v>5.4375</v>
@@ -3028,10 +3028,10 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>4.3529411764705879</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="E50">
-        <v>5.5294117647058822</v>
+        <v>5.4</v>
       </c>
       <c r="F50">
         <v>5.0625</v>
@@ -3051,10 +3051,10 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>3.7058823529411771</v>
+        <v>3.6</v>
       </c>
       <c r="E51">
-        <v>5.2352941176470589</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="F51">
         <v>2.1875</v>
@@ -3074,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>4.882352941176471</v>
+        <v>4.8666666666666663</v>
       </c>
       <c r="E52">
-        <v>5.8235294117647056</v>
+        <v>5.7333333333333334</v>
       </c>
       <c r="F52">
         <v>2.25</v>
@@ -3097,10 +3097,10 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>5.5294117647058822</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="E53">
-        <v>6.117647058823529</v>
+        <v>6</v>
       </c>
       <c r="F53">
         <v>2.9375</v>
@@ -3120,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>5.882352941176471</v>
+        <v>6.1333333333333337</v>
       </c>
       <c r="E54">
-        <v>6.2941176470588234</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F54">
         <v>5.625</v>
@@ -3143,10 +3143,10 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>2.882352941176471</v>
+        <v>2.9333333333333331</v>
       </c>
       <c r="E55">
-        <v>4.9411764705882364</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="F55">
         <v>6.0625</v>
@@ -3166,10 +3166,10 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>4.4117647058823533</v>
+        <v>4.2</v>
       </c>
       <c r="E56">
-        <v>5.4117647058823533</v>
+        <v>5.2666666666666666</v>
       </c>
       <c r="F56">
         <v>6.5</v>
@@ -4684,10 +4684,10 @@
         <v>0</v>
       </c>
       <c r="D122">
-        <v>6.0714285714285712</v>
+        <v>6.1333333333333337</v>
       </c>
       <c r="E122">
-        <v>6.7142857142857144</v>
+        <v>6.7333333333333334</v>
       </c>
       <c r="F122">
         <v>7.0625</v>
@@ -4707,10 +4707,10 @@
         <v>0</v>
       </c>
       <c r="D123">
-        <v>4.2142857142857144</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="E123">
-        <v>5.2857142857142856</v>
+        <v>5.2666666666666666</v>
       </c>
       <c r="F123">
         <v>1.6875</v>
@@ -4730,10 +4730,10 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>6.2857142857142856</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="E124">
-        <v>6.5714285714285712</v>
+        <v>6.6</v>
       </c>
       <c r="F124">
         <v>2.9375</v>
@@ -4753,10 +4753,10 @@
         <v>0</v>
       </c>
       <c r="D125">
-        <v>3.785714285714286</v>
+        <v>3.7333333333333329</v>
       </c>
       <c r="E125">
-        <v>4.4285714285714288</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F125">
         <v>2.5</v>
@@ -4776,10 +4776,10 @@
         <v>0</v>
       </c>
       <c r="D126">
-        <v>4.2857142857142856</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E126">
-        <v>4.7142857142857144</v>
+        <v>4.8</v>
       </c>
       <c r="F126">
         <v>5.125</v>
@@ -4799,10 +4799,10 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <v>4.0714285714285712</v>
+        <v>4.2</v>
       </c>
       <c r="E127">
-        <v>4.8571428571428568</v>
+        <v>4.9333333333333336</v>
       </c>
       <c r="F127">
         <v>3.75</v>
@@ -4822,10 +4822,10 @@
         <v>0</v>
       </c>
       <c r="D128">
-        <v>5.4285714285714288</v>
+        <v>5.4666666666666668</v>
       </c>
       <c r="E128">
-        <v>5.9285714285714288</v>
+        <v>5.9333333333333336</v>
       </c>
       <c r="F128">
         <v>3.5</v>
@@ -4845,10 +4845,10 @@
         <v>0</v>
       </c>
       <c r="D129">
-        <v>3.9285714285714279</v>
+        <v>4</v>
       </c>
       <c r="E129">
-        <v>4.3571428571428568</v>
+        <v>4.4666666666666668</v>
       </c>
       <c r="F129">
         <v>4.5625</v>
@@ -4868,10 +4868,10 @@
         <v>0</v>
       </c>
       <c r="D130">
-        <v>5.3571428571428568</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="E130">
-        <v>5.7142857142857144</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="F130">
         <v>7</v>
@@ -4891,10 +4891,10 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>4.8571428571428568</v>
+        <v>5</v>
       </c>
       <c r="E131">
-        <v>5.7857142857142856</v>
+        <v>5.8666666666666663</v>
       </c>
       <c r="F131">
         <v>4.8125</v>
@@ -4914,10 +4914,10 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>3.5714285714285721</v>
+        <v>3.8</v>
       </c>
       <c r="E132">
-        <v>4.2142857142857144</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F132">
         <v>2.5625</v>
@@ -4937,10 +4937,10 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>6.7142857142857144</v>
+        <v>6.7333333333333334</v>
       </c>
       <c r="E133">
-        <v>6.7857142857142856</v>
+        <v>6.8</v>
       </c>
       <c r="F133">
         <v>5.1875</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>4.0714285714285712</v>
+        <v>4</v>
       </c>
       <c r="E134">
-        <v>5.0714285714285712</v>
+        <v>5</v>
       </c>
       <c r="F134">
         <v>3.125</v>
@@ -4983,10 +4983,10 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="E135">
-        <v>4.0714285714285712</v>
+        <v>4</v>
       </c>
       <c r="F135">
         <v>5.0625</v>
@@ -5006,10 +5006,10 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <v>5.0714285714285712</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="E136">
-        <v>5.6428571428571432</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="F136">
         <v>6.875</v>
@@ -5029,10 +5029,10 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>1.642857142857143</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="E137">
-        <v>2.5714285714285721</v>
+        <v>2.5333333333333332</v>
       </c>
       <c r="F137">
         <v>2.6875</v>
@@ -5052,10 +5052,10 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>4.0714285714285712</v>
+        <v>4.2666666666666666</v>
       </c>
       <c r="E138">
-        <v>5.2857142857142856</v>
+        <v>5.4</v>
       </c>
       <c r="F138">
         <v>2.625</v>
@@ -5075,10 +5075,10 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>4.2142857142857144</v>
+        <v>4.2666666666666666</v>
       </c>
       <c r="E139">
-        <v>4.8571428571428568</v>
+        <v>4.9333333333333336</v>
       </c>
       <c r="F139">
         <v>6.3125</v>
@@ -5098,10 +5098,10 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>3.285714285714286</v>
+        <v>3.2666666666666671</v>
       </c>
       <c r="E140">
-        <v>3.6428571428571428</v>
+        <v>3.7333333333333329</v>
       </c>
       <c r="F140">
         <v>7.125</v>
@@ -5121,10 +5121,10 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>4.6428571428571432</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="E141">
-        <v>5.6428571428571432</v>
+        <v>5.6</v>
       </c>
       <c r="F141">
         <v>2.75</v>
@@ -5144,10 +5144,10 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>5.8571428571428568</v>
+        <v>5.9333333333333336</v>
       </c>
       <c r="E142">
-        <v>6.4285714285714288</v>
+        <v>6.4666666666666668</v>
       </c>
       <c r="F142">
         <v>2.125</v>
@@ -5167,10 +5167,10 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>5.9285714285714288</v>
+        <v>6</v>
       </c>
       <c r="E143">
-        <v>6.2142857142857144</v>
+        <v>6.2666666666666666</v>
       </c>
       <c r="F143">
         <v>6.9375</v>
@@ -5190,10 +5190,10 @@
         <v>0</v>
       </c>
       <c r="D144">
-        <v>3.6428571428571428</v>
+        <v>3.8</v>
       </c>
       <c r="E144">
-        <v>4.6428571428571432</v>
+        <v>4.7333333333333334</v>
       </c>
       <c r="F144">
         <v>6.5625</v>
@@ -5213,10 +5213,10 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>4.2857142857142856</v>
+        <v>4.2</v>
       </c>
       <c r="E145">
-        <v>5.8571428571428568</v>
+        <v>5.7333333333333334</v>
       </c>
       <c r="F145">
         <v>4.8125</v>
@@ -5236,10 +5236,10 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>3.785714285714286</v>
+        <v>3.9333333333333331</v>
       </c>
       <c r="E146">
-        <v>4.7142857142857144</v>
+        <v>4.8</v>
       </c>
       <c r="F146">
         <v>2.25</v>
@@ -5259,10 +5259,10 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <v>4.4285714285714288</v>
+        <v>4.5333333333333332</v>
       </c>
       <c r="E147">
-        <v>5.5714285714285712</v>
+        <v>5.6</v>
       </c>
       <c r="F147">
         <v>3</v>
@@ -5282,10 +5282,10 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>1.714285714285714</v>
+        <v>1.8</v>
       </c>
       <c r="E148">
-        <v>2.1428571428571428</v>
+        <v>2.1333333333333329</v>
       </c>
       <c r="F148">
         <v>2.8125</v>
@@ -5305,10 +5305,10 @@
         <v>0</v>
       </c>
       <c r="D149">
-        <v>3.785714285714286</v>
+        <v>3.7333333333333329</v>
       </c>
       <c r="E149">
-        <v>5.1428571428571432</v>
+        <v>4.9333333333333336</v>
       </c>
       <c r="F149">
         <v>5.9375</v>
@@ -5328,10 +5328,10 @@
         <v>0</v>
       </c>
       <c r="D150">
-        <v>2.5714285714285721</v>
+        <v>2.5333333333333332</v>
       </c>
       <c r="E150">
-        <v>3.1428571428571428</v>
+        <v>3.0666666666666669</v>
       </c>
       <c r="F150">
         <v>5.875</v>
@@ -5351,10 +5351,10 @@
         <v>0</v>
       </c>
       <c r="D151">
-        <v>4.9285714285714288</v>
+        <v>4.7333333333333334</v>
       </c>
       <c r="E151">
-        <v>5.5714285714285712</v>
+        <v>5.4666666666666668</v>
       </c>
       <c r="F151">
         <v>4.3125</v>
@@ -5374,10 +5374,10 @@
         <v>0</v>
       </c>
       <c r="D152">
-        <v>5.6428571428571432</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="E152">
-        <v>6.2142857142857144</v>
+        <v>6.2666666666666666</v>
       </c>
       <c r="F152">
         <v>1.875</v>
@@ -5397,10 +5397,10 @@
         <v>0</v>
       </c>
       <c r="D153">
-        <v>5.5</v>
+        <v>5.5333333333333332</v>
       </c>
       <c r="E153">
-        <v>6.4285714285714288</v>
+        <v>6.4666666666666668</v>
       </c>
       <c r="F153">
         <v>6.875</v>
@@ -5420,10 +5420,10 @@
         <v>0</v>
       </c>
       <c r="D154">
-        <v>5.6428571428571432</v>
+        <v>5.6</v>
       </c>
       <c r="E154">
-        <v>6.3571428571428568</v>
+        <v>6.4</v>
       </c>
       <c r="F154">
         <v>5.5625</v>
@@ -5443,10 +5443,10 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>3.5</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="E155">
-        <v>4.5714285714285712</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="F155">
         <v>7.1875</v>
@@ -5466,10 +5466,10 @@
         <v>0</v>
       </c>
       <c r="D156">
-        <v>3.5714285714285721</v>
+        <v>3.7333333333333329</v>
       </c>
       <c r="E156">
-        <v>4.4285714285714288</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F156">
         <v>2.125</v>
@@ -5489,10 +5489,10 @@
         <v>0</v>
       </c>
       <c r="D157">
-        <v>4.1428571428571432</v>
+        <v>4.1333333333333337</v>
       </c>
       <c r="E157">
-        <v>5</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="F157">
         <v>2.125</v>
@@ -5512,10 +5512,10 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <v>4.8571428571428568</v>
+        <v>4.8666666666666663</v>
       </c>
       <c r="E158">
-        <v>5.8571428571428568</v>
+        <v>5.7333333333333334</v>
       </c>
       <c r="F158">
         <v>2.125</v>
@@ -5535,10 +5535,10 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>5.2142857142857144</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="E159">
-        <v>6.3571428571428568</v>
+        <v>6.4</v>
       </c>
       <c r="F159">
         <v>5.5625</v>
@@ -5558,10 +5558,10 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="E160">
-        <v>4.9285714285714288</v>
+        <v>4.8</v>
       </c>
       <c r="F160">
         <v>5.3125</v>
@@ -5581,10 +5581,10 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <v>3.285714285714286</v>
+        <v>3.1333333333333329</v>
       </c>
       <c r="E161">
-        <v>4.8571428571428568</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F161">
         <v>5.625</v>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>4.2142857142857144</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E162">
-        <v>4.3571428571428568</v>
+        <v>4.5333333333333332</v>
       </c>
       <c r="F162">
         <v>6</v>
@@ -5627,10 +5627,10 @@
         <v>0</v>
       </c>
       <c r="D163">
-        <v>5.6428571428571432</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="E163">
-        <v>6.2857142857142856</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F163">
         <v>6.1875</v>
@@ -5650,10 +5650,10 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>3.5</v>
+        <v>3.4666666666666668</v>
       </c>
       <c r="E164">
-        <v>5.5</v>
+        <v>5.2666666666666666</v>
       </c>
       <c r="F164">
         <v>5.375</v>
@@ -5673,10 +5673,10 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>4</v>
+        <v>4.0666666666666664</v>
       </c>
       <c r="E165">
-        <v>5.2142857142857144</v>
+        <v>5.2</v>
       </c>
       <c r="F165">
         <v>6.25</v>
@@ -5696,10 +5696,10 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <v>5.0714285714285712</v>
+        <v>4.8666666666666663</v>
       </c>
       <c r="E166">
-        <v>5.8571428571428568</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="F166">
         <v>5.375</v>
@@ -5719,10 +5719,10 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <v>1.642857142857143</v>
+        <v>1.6</v>
       </c>
       <c r="E167">
-        <v>3.214285714285714</v>
+        <v>3.0666666666666669</v>
       </c>
       <c r="F167">
         <v>6</v>
@@ -5742,10 +5742,10 @@
         <v>0</v>
       </c>
       <c r="D168">
-        <v>2.3571428571428572</v>
+        <v>2.2666666666666671</v>
       </c>
       <c r="E168">
-        <v>3.5</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="F168">
         <v>6.9375</v>
@@ -5765,10 +5765,10 @@
         <v>0</v>
       </c>
       <c r="D169">
-        <v>3.5714285714285721</v>
+        <v>3.4666666666666668</v>
       </c>
       <c r="E169">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="F169">
         <v>5.9375</v>
@@ -5788,10 +5788,10 @@
         <v>0</v>
       </c>
       <c r="D170">
-        <v>3.8571428571428572</v>
+        <v>3.9333333333333331</v>
       </c>
       <c r="E170">
-        <v>4.1428571428571432</v>
+        <v>4.2666666666666666</v>
       </c>
       <c r="F170">
         <v>6.6875</v>
@@ -5811,10 +5811,10 @@
         <v>0</v>
       </c>
       <c r="D171">
-        <v>4.5714285714285712</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="E171">
-        <v>5.2142857142857144</v>
+        <v>5</v>
       </c>
       <c r="F171">
         <v>6.5625</v>
@@ -5834,10 +5834,10 @@
         <v>0</v>
       </c>
       <c r="D172">
-        <v>4.1428571428571432</v>
+        <v>4.2</v>
       </c>
       <c r="E172">
-        <v>5.2857142857142856</v>
+        <v>5.2666666666666666</v>
       </c>
       <c r="F172">
         <v>3.4375</v>
@@ -5857,10 +5857,10 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <v>4.7142857142857144</v>
+        <v>4.7333333333333334</v>
       </c>
       <c r="E173">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="F173">
         <v>5.3125</v>
@@ -5880,10 +5880,10 @@
         <v>0</v>
       </c>
       <c r="D174">
-        <v>2.714285714285714</v>
+        <v>2.7333333333333329</v>
       </c>
       <c r="E174">
-        <v>3.6428571428571428</v>
+        <v>3.8</v>
       </c>
       <c r="F174">
         <v>4.8125</v>
@@ -5903,10 +5903,10 @@
         <v>0</v>
       </c>
       <c r="D175">
-        <v>3.9285714285714279</v>
+        <v>3.7333333333333329</v>
       </c>
       <c r="E175">
-        <v>4.4285714285714288</v>
+        <v>4.2</v>
       </c>
       <c r="F175">
         <v>1.875</v>
@@ -5926,10 +5926,10 @@
         <v>0</v>
       </c>
       <c r="D176">
-        <v>3.785714285714286</v>
+        <v>3.6</v>
       </c>
       <c r="E176">
-        <v>4.6428571428571432</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F176">
         <v>4.9375</v>
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="D177">
-        <v>5.5714285714285712</v>
+        <v>5.5333333333333332</v>
       </c>
       <c r="E177">
         <v>6</v>
@@ -5972,10 +5972,10 @@
         <v>0</v>
       </c>
       <c r="D178">
-        <v>3</v>
+        <v>2.9333333333333331</v>
       </c>
       <c r="E178">
-        <v>4.5</v>
+        <v>4.2666666666666666</v>
       </c>
       <c r="F178">
         <v>7</v>
@@ -5995,10 +5995,10 @@
         <v>0</v>
       </c>
       <c r="D179">
-        <v>5.1428571428571432</v>
+        <v>5.2666666666666666</v>
       </c>
       <c r="E179">
-        <v>6.0714285714285712</v>
+        <v>6.1333333333333337</v>
       </c>
       <c r="F179">
         <v>3.4375</v>
@@ -6018,10 +6018,10 @@
         <v>0</v>
       </c>
       <c r="D180">
-        <v>5.1428571428571432</v>
+        <v>5.2</v>
       </c>
       <c r="E180">
-        <v>5.7857142857142856</v>
+        <v>5.8666666666666663</v>
       </c>
       <c r="F180">
         <v>6.5</v>
@@ -6041,10 +6041,10 @@
         <v>0</v>
       </c>
       <c r="D181">
-        <v>3.5714285714285721</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="E181">
-        <v>5</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="F181">
         <v>3.125</v>
@@ -6064,10 +6064,10 @@
         <v>0</v>
       </c>
       <c r="D182">
-        <v>5.1428571428571432</v>
+        <v>5.1333333333333337</v>
       </c>
       <c r="E182">
-        <v>6.2142857142857144</v>
+        <v>6.2666666666666666</v>
       </c>
       <c r="F182">
         <v>2.5625</v>
@@ -6090,7 +6090,7 @@
         <v>5</v>
       </c>
       <c r="E183">
-        <v>5.8571428571428568</v>
+        <v>5.8666666666666663</v>
       </c>
       <c r="F183">
         <v>1.9375</v>
@@ -6110,10 +6110,10 @@
         <v>0</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>1.9333333333333329</v>
       </c>
       <c r="E184">
-        <v>2.3571428571428572</v>
+        <v>2.4666666666666668</v>
       </c>
       <c r="F184">
         <v>6.3125</v>
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="D185">
-        <v>3.714285714285714</v>
+        <v>3.8</v>
       </c>
       <c r="E185">
         <v>5</v>
@@ -6156,10 +6156,10 @@
         <v>0</v>
       </c>
       <c r="D186">
-        <v>4.3571428571428568</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E186">
-        <v>5.6428571428571432</v>
+        <v>5.7333333333333334</v>
       </c>
       <c r="F186">
         <v>5.25</v>
@@ -6179,10 +6179,10 @@
         <v>0</v>
       </c>
       <c r="D187">
-        <v>5.666666666666667</v>
+        <v>5.5333333333333332</v>
       </c>
       <c r="E187">
-        <v>6.1333333333333337</v>
+        <v>6.0666666666666664</v>
       </c>
       <c r="F187">
         <v>1.6875</v>
@@ -6205,7 +6205,7 @@
         <v>5.666666666666667</v>
       </c>
       <c r="E188">
-        <v>6.4666666666666668</v>
+        <v>6.4</v>
       </c>
       <c r="F188">
         <v>7.125</v>
@@ -6225,10 +6225,10 @@
         <v>0</v>
       </c>
       <c r="D189">
-        <v>5.9333333333333336</v>
+        <v>5.8</v>
       </c>
       <c r="E189">
-        <v>6.6</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="F189">
         <v>4</v>
@@ -6248,10 +6248,10 @@
         <v>0</v>
       </c>
       <c r="D190">
-        <v>5.2666666666666666</v>
+        <v>4.9333333333333336</v>
       </c>
       <c r="E190">
-        <v>5.8</v>
+        <v>5.4666666666666668</v>
       </c>
       <c r="F190">
         <v>2.0625</v>
@@ -6271,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="D191">
-        <v>5.8666666666666663</v>
+        <v>5.8</v>
       </c>
       <c r="E191">
         <v>6.4666666666666668</v>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="D192">
-        <v>4.0666666666666664</v>
+        <v>3.9333333333333331</v>
       </c>
       <c r="E192">
         <v>5.1333333333333337</v>
@@ -6317,10 +6317,10 @@
         <v>0</v>
       </c>
       <c r="D193">
-        <v>2.666666666666667</v>
+        <v>2.4</v>
       </c>
       <c r="E193">
-        <v>3.1333333333333329</v>
+        <v>3</v>
       </c>
       <c r="F193">
         <v>3.3125</v>
@@ -6340,10 +6340,10 @@
         <v>0</v>
       </c>
       <c r="D194">
-        <v>3.6</v>
+        <v>3.4666666666666668</v>
       </c>
       <c r="E194">
-        <v>4.333333333333333</v>
+        <v>4.2</v>
       </c>
       <c r="F194">
         <v>4.875</v>
@@ -6363,10 +6363,10 @@
         <v>0</v>
       </c>
       <c r="D195">
-        <v>3.7333333333333329</v>
+        <v>3.4666666666666668</v>
       </c>
       <c r="E195">
-        <v>4.9333333333333336</v>
+        <v>4.7333333333333334</v>
       </c>
       <c r="F195">
         <v>7.125</v>
@@ -6386,10 +6386,10 @@
         <v>0</v>
       </c>
       <c r="D196">
-        <v>3.8</v>
+        <v>3.8666666666666671</v>
       </c>
       <c r="E196">
-        <v>5.1333333333333337</v>
+        <v>5.2</v>
       </c>
       <c r="F196">
         <v>6.875</v>
@@ -6412,7 +6412,7 @@
         <v>5.9333333333333336</v>
       </c>
       <c r="E197">
-        <v>6.5333333333333332</v>
+        <v>6.4666666666666668</v>
       </c>
       <c r="F197">
         <v>5.1875</v>
@@ -6432,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="D198">
-        <v>6.4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="E198">
         <v>6.666666666666667</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="D199">
-        <v>6.4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="E199">
         <v>6.666666666666667</v>
@@ -6478,10 +6478,10 @@
         <v>0</v>
       </c>
       <c r="D200">
-        <v>5.1333333333333337</v>
+        <v>5</v>
       </c>
       <c r="E200">
-        <v>5.666666666666667</v>
+        <v>5.6</v>
       </c>
       <c r="F200">
         <v>4.125</v>
@@ -6501,10 +6501,10 @@
         <v>0</v>
       </c>
       <c r="D201">
-        <v>4.5333333333333332</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E201">
-        <v>5.2</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="F201">
         <v>1.875</v>
@@ -6524,10 +6524,10 @@
         <v>0</v>
       </c>
       <c r="D202">
-        <v>5.6</v>
+        <v>5.4666666666666668</v>
       </c>
       <c r="E202">
-        <v>6.1333333333333337</v>
+        <v>6</v>
       </c>
       <c r="F202">
         <v>3</v>
@@ -6547,10 +6547,10 @@
         <v>0</v>
       </c>
       <c r="D203">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="E203">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="F203">
         <v>1.625</v>
@@ -6570,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="D204">
-        <v>5.333333333333333</v>
+        <v>5.2666666666666666</v>
       </c>
       <c r="E204">
         <v>6.2666666666666666</v>
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="D205">
-        <v>3.0666666666666669</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="E205">
         <v>5</v>
@@ -6639,10 +6639,10 @@
         <v>0</v>
       </c>
       <c r="D207">
-        <v>2.4666666666666668</v>
+        <v>2.1333333333333329</v>
       </c>
       <c r="E207">
-        <v>2.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F207">
         <v>2.8125</v>
@@ -6662,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="D208">
-        <v>6.6</v>
+        <v>6.4666666666666668</v>
       </c>
       <c r="E208">
         <v>6.7333333333333334</v>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="D209">
-        <v>3.666666666666667</v>
+        <v>3.5333333333333332</v>
       </c>
       <c r="E209">
         <v>5.5333333333333332</v>
@@ -6708,10 +6708,10 @@
         <v>0</v>
       </c>
       <c r="D210">
-        <v>3.8</v>
+        <v>3.4666666666666668</v>
       </c>
       <c r="E210">
-        <v>4.5333333333333332</v>
+        <v>4.2666666666666666</v>
       </c>
       <c r="F210">
         <v>1.875</v>
@@ -6731,10 +6731,10 @@
         <v>0</v>
       </c>
       <c r="D211">
-        <v>6.2666666666666666</v>
+        <v>6.2</v>
       </c>
       <c r="E211">
-        <v>6.6</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="F211">
         <v>5.1875</v>
@@ -6754,10 +6754,10 @@
         <v>0</v>
       </c>
       <c r="D212">
-        <v>5.8666666666666663</v>
+        <v>5.8</v>
       </c>
       <c r="E212">
-        <v>6.2666666666666666</v>
+        <v>6.2</v>
       </c>
       <c r="F212">
         <v>2.9375</v>
@@ -6777,10 +6777,10 @@
         <v>0</v>
       </c>
       <c r="D213">
-        <v>6.0666666666666664</v>
+        <v>6</v>
       </c>
       <c r="E213">
-        <v>6.5333333333333332</v>
+        <v>6.4666666666666668</v>
       </c>
       <c r="F213">
         <v>1.9375</v>
@@ -6869,10 +6869,10 @@
         <v>0</v>
       </c>
       <c r="D217">
-        <v>5.1333333333333337</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="E217">
-        <v>5.7333333333333334</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="F217">
         <v>4.625</v>
@@ -6892,10 +6892,10 @@
         <v>0</v>
       </c>
       <c r="D218">
-        <v>4.1333333333333337</v>
+        <v>3.9333333333333331</v>
       </c>
       <c r="E218">
-        <v>5.4</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="F218">
         <v>3.9375</v>
@@ -6915,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="D219">
-        <v>4.2</v>
+        <v>4.1333333333333337</v>
       </c>
       <c r="E219">
-        <v>5.333333333333333</v>
+        <v>5.2666666666666666</v>
       </c>
       <c r="F219">
         <v>3.4375</v>
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="D220">
-        <v>6.4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="E220">
         <v>6.4666666666666668</v>
@@ -6961,10 +6961,10 @@
         <v>0</v>
       </c>
       <c r="D221">
-        <v>5.6</v>
+        <v>5.4666666666666668</v>
       </c>
       <c r="E221">
-        <v>6.5333333333333332</v>
+        <v>6.4666666666666668</v>
       </c>
       <c r="F221">
         <v>7.1875</v>
@@ -6984,10 +6984,10 @@
         <v>0</v>
       </c>
       <c r="D222">
-        <v>3.8666666666666671</v>
+        <v>4.2666666666666666</v>
       </c>
       <c r="E222">
-        <v>4.666666666666667</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="F222">
         <v>3.8125</v>
@@ -7007,10 +7007,10 @@
         <v>0</v>
       </c>
       <c r="D223">
-        <v>3.7333333333333329</v>
+        <v>3.5333333333333332</v>
       </c>
       <c r="E223">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="F223">
         <v>7.375</v>
@@ -7030,10 +7030,10 @@
         <v>0</v>
       </c>
       <c r="D224">
-        <v>3.6</v>
+        <v>3.4666666666666668</v>
       </c>
       <c r="E224">
-        <v>5.2</v>
+        <v>5.1333333333333337</v>
       </c>
       <c r="F224">
         <v>5.125</v>
@@ -7053,10 +7053,10 @@
         <v>0</v>
       </c>
       <c r="D225">
-        <v>5.0666666666666664</v>
+        <v>5</v>
       </c>
       <c r="E225">
-        <v>5.8</v>
+        <v>5.7333333333333334</v>
       </c>
       <c r="F225">
         <v>1.875</v>
@@ -7076,10 +7076,10 @@
         <v>0</v>
       </c>
       <c r="D226">
-        <v>4.4000000000000004</v>
+        <v>4.2666666666666666</v>
       </c>
       <c r="E226">
-        <v>5.0666666666666664</v>
+        <v>4.9333333333333336</v>
       </c>
       <c r="F226">
         <v>4.9375</v>
@@ -7099,10 +7099,10 @@
         <v>0</v>
       </c>
       <c r="D227">
-        <v>3.7333333333333329</v>
+        <v>3.5333333333333332</v>
       </c>
       <c r="E227">
-        <v>4.2666666666666666</v>
+        <v>4</v>
       </c>
       <c r="F227">
         <v>2.9375</v>
@@ -7122,10 +7122,10 @@
         <v>0</v>
       </c>
       <c r="D228">
-        <v>4.7333333333333334</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="E228">
-        <v>6.2</v>
+        <v>6.1333333333333337</v>
       </c>
       <c r="F228">
         <v>3.0625</v>
@@ -7148,7 +7148,7 @@
         <v>2.5333333333333332</v>
       </c>
       <c r="E229">
-        <v>3.4</v>
+        <v>3.4666666666666668</v>
       </c>
       <c r="F229">
         <v>6.1875</v>
@@ -7168,10 +7168,10 @@
         <v>0</v>
       </c>
       <c r="D230">
-        <v>6.5333333333333332</v>
+        <v>6.4</v>
       </c>
       <c r="E230">
-        <v>6.6</v>
+        <v>6.4666666666666668</v>
       </c>
       <c r="F230">
         <v>2.8125</v>
@@ -7214,10 +7214,10 @@
         <v>0</v>
       </c>
       <c r="D232">
-        <v>5.7333333333333334</v>
+        <v>5.6</v>
       </c>
       <c r="E232">
-        <v>6.333333333333333</v>
+        <v>6.2666666666666666</v>
       </c>
       <c r="F232">
         <v>6.5625</v>
@@ -7237,10 +7237,10 @@
         <v>0</v>
       </c>
       <c r="D233">
-        <v>2.5333333333333332</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="E233">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="F233">
         <v>2.0625</v>
@@ -7260,10 +7260,10 @@
         <v>0</v>
       </c>
       <c r="D234">
-        <v>3.2</v>
+        <v>3.0666666666666669</v>
       </c>
       <c r="E234">
-        <v>4.1333333333333337</v>
+        <v>4</v>
       </c>
       <c r="F234">
         <v>5.0625</v>
@@ -7283,10 +7283,10 @@
         <v>0</v>
       </c>
       <c r="D235">
-        <v>5.1333333333333337</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="E235">
-        <v>6.4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F235">
         <v>5.9375</v>
@@ -7309,7 +7309,7 @@
         <v>3.9333333333333331</v>
       </c>
       <c r="E236">
-        <v>5.2666666666666666</v>
+        <v>5.2</v>
       </c>
       <c r="F236">
         <v>2.875</v>
@@ -7352,10 +7352,10 @@
         <v>0</v>
       </c>
       <c r="D238">
-        <v>4.2666666666666666</v>
+        <v>4</v>
       </c>
       <c r="E238">
-        <v>5.6</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="F238">
         <v>3</v>
@@ -7375,10 +7375,10 @@
         <v>0</v>
       </c>
       <c r="D239">
-        <v>3.0666666666666669</v>
+        <v>2.8666666666666671</v>
       </c>
       <c r="E239">
-        <v>3.4666666666666668</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="F239">
         <v>2.8125</v>
@@ -7398,10 +7398,10 @@
         <v>0</v>
       </c>
       <c r="D240">
-        <v>5.666666666666667</v>
+        <v>5.6</v>
       </c>
       <c r="E240">
-        <v>6.6</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="F240">
         <v>7.1875</v>
@@ -7421,10 +7421,10 @@
         <v>0</v>
       </c>
       <c r="D241">
-        <v>1.466666666666667</v>
+        <v>1.6</v>
       </c>
       <c r="E241">
-        <v>1.7333333333333329</v>
+        <v>1.8</v>
       </c>
       <c r="F241">
         <v>2.0625</v>
@@ -7467,10 +7467,10 @@
         <v>6.6667000000000004E-2</v>
       </c>
       <c r="D243">
-        <v>6.333333333333333</v>
+        <v>6.2666666666666666</v>
       </c>
       <c r="E243">
-        <v>6.6</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="F243">
         <v>4.9375</v>
@@ -7490,10 +7490,10 @@
         <v>0.1</v>
       </c>
       <c r="D244">
-        <v>5.4</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="E244">
-        <v>6.0666666666666664</v>
+        <v>6</v>
       </c>
       <c r="F244">
         <v>2.25</v>
@@ -7513,10 +7513,10 @@
         <v>0.111111</v>
       </c>
       <c r="D245">
-        <v>4</v>
+        <v>4.1333333333333337</v>
       </c>
       <c r="E245">
-        <v>5</v>
+        <v>5.1333333333333337</v>
       </c>
       <c r="F245">
         <v>4</v>
@@ -7536,10 +7536,10 @@
         <v>0.111111</v>
       </c>
       <c r="D246">
-        <v>5.9411764705882364</v>
+        <v>5.8</v>
       </c>
       <c r="E246">
-        <v>6.3529411764705879</v>
+        <v>6.2666666666666666</v>
       </c>
       <c r="F246">
         <v>6.6875</v>
@@ -7559,10 +7559,10 @@
         <v>0.125</v>
       </c>
       <c r="D247">
-        <v>6.6428571428571432</v>
+        <v>6.6</v>
       </c>
       <c r="E247">
-        <v>6.6428571428571432</v>
+        <v>6.6</v>
       </c>
       <c r="F247">
         <v>4.4375</v>
@@ -7582,10 +7582,10 @@
         <v>0.125</v>
       </c>
       <c r="D248">
-        <v>4.2666666666666666</v>
+        <v>4.1333333333333337</v>
       </c>
       <c r="E248">
-        <v>5.2</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="F248">
         <v>4</v>
@@ -7605,10 +7605,10 @@
         <v>0.13333300000000001</v>
       </c>
       <c r="D249">
-        <v>5.117647058823529</v>
+        <v>5.2</v>
       </c>
       <c r="E249">
-        <v>5.3529411764705879</v>
+        <v>5.4</v>
       </c>
       <c r="F249">
         <v>4.9375</v>
@@ -7628,10 +7628,10 @@
         <v>0.13333300000000001</v>
       </c>
       <c r="D250">
-        <v>5.2352941176470589</v>
+        <v>5.2</v>
       </c>
       <c r="E250">
-        <v>6.1764705882352944</v>
+        <v>6.1333333333333337</v>
       </c>
       <c r="F250">
         <v>2.25</v>
@@ -7651,10 +7651,10 @@
         <v>0.13333300000000001</v>
       </c>
       <c r="D251">
-        <v>5.6470588235294121</v>
+        <v>5.5333333333333332</v>
       </c>
       <c r="E251">
-        <v>5.8235294117647056</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="F251">
         <v>6.1875</v>
@@ -7674,10 +7674,10 @@
         <v>0.13333300000000001</v>
       </c>
       <c r="D252">
-        <v>5.117647058823529</v>
+        <v>5.2</v>
       </c>
       <c r="E252">
-        <v>6</v>
+        <v>5.9333333333333336</v>
       </c>
       <c r="F252">
         <v>5.5625</v>
@@ -7697,10 +7697,10 @@
         <v>0.13333300000000001</v>
       </c>
       <c r="D253">
-        <v>6</v>
+        <v>5.8666666666666663</v>
       </c>
       <c r="E253">
-        <v>6.2941176470588234</v>
+        <v>6.2</v>
       </c>
       <c r="F253">
         <v>3.625</v>
@@ -7927,10 +7927,10 @@
         <v>0.13333300000000001</v>
       </c>
       <c r="D263">
-        <v>6.1428571428571432</v>
+        <v>6.0666666666666664</v>
       </c>
       <c r="E263">
-        <v>6.5714285714285712</v>
+        <v>6.4666666666666668</v>
       </c>
       <c r="F263">
         <v>5.125</v>
@@ -7950,10 +7950,10 @@
         <v>0.13333300000000001</v>
       </c>
       <c r="D264">
-        <v>6.0714285714285712</v>
+        <v>6</v>
       </c>
       <c r="E264">
-        <v>6.4285714285714288</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F264">
         <v>3.5625</v>
@@ -7973,10 +7973,10 @@
         <v>0.13333300000000001</v>
       </c>
       <c r="D265">
-        <v>5.1428571428571432</v>
+        <v>5.2</v>
       </c>
       <c r="E265">
-        <v>5.6428571428571432</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="F265">
         <v>5.4375</v>
@@ -7996,10 +7996,10 @@
         <v>0.13333300000000001</v>
       </c>
       <c r="D266">
-        <v>6.0714285714285712</v>
+        <v>6.0666666666666664</v>
       </c>
       <c r="E266">
-        <v>6.4285714285714288</v>
+        <v>6.4</v>
       </c>
       <c r="F266">
         <v>6.1875</v>
@@ -8019,10 +8019,10 @@
         <v>0.13333300000000001</v>
       </c>
       <c r="D267">
-        <v>4.0714285714285712</v>
+        <v>4</v>
       </c>
       <c r="E267">
-        <v>5.7857142857142856</v>
+        <v>5.7333333333333334</v>
       </c>
       <c r="F267">
         <v>4.875</v>
@@ -8042,10 +8042,10 @@
         <v>0.13333300000000001</v>
       </c>
       <c r="D268">
-        <v>4.7857142857142856</v>
+        <v>4.9333333333333336</v>
       </c>
       <c r="E268">
-        <v>5.7857142857142856</v>
+        <v>5.8666666666666663</v>
       </c>
       <c r="F268">
         <v>4.5</v>
@@ -8065,10 +8065,10 @@
         <v>0.13333300000000001</v>
       </c>
       <c r="D269">
-        <v>5.5714285714285712</v>
+        <v>5.6</v>
       </c>
       <c r="E269">
-        <v>6.2857142857142856</v>
+        <v>6.2666666666666666</v>
       </c>
       <c r="F269">
         <v>6.8125</v>
@@ -8088,7 +8088,7 @@
         <v>0.13333300000000001</v>
       </c>
       <c r="D270">
-        <v>5.2</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="E270">
         <v>6.4</v>
@@ -8111,10 +8111,10 @@
         <v>0.13333300000000001</v>
       </c>
       <c r="D271">
-        <v>4.5333333333333332</v>
+        <v>4.1333333333333337</v>
       </c>
       <c r="E271">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="F271">
         <v>5.0625</v>
@@ -8157,10 +8157,10 @@
         <v>0.13333300000000001</v>
       </c>
       <c r="D273">
-        <v>5.333333333333333</v>
+        <v>5.2666666666666666</v>
       </c>
       <c r="E273">
-        <v>6.0666666666666664</v>
+        <v>6</v>
       </c>
       <c r="F273">
         <v>5.5625</v>
@@ -8180,10 +8180,10 @@
         <v>0.13333300000000001</v>
       </c>
       <c r="D274">
-        <v>6.2</v>
+        <v>6.0666666666666664</v>
       </c>
       <c r="E274">
-        <v>6.5333333333333332</v>
+        <v>6.4666666666666668</v>
       </c>
       <c r="F274">
         <v>4.4375</v>
@@ -8203,10 +8203,10 @@
         <v>0.13333300000000001</v>
       </c>
       <c r="D275">
-        <v>5.333333333333333</v>
+        <v>5.1333333333333337</v>
       </c>
       <c r="E275">
-        <v>6.1333333333333337</v>
+        <v>5.9333333333333336</v>
       </c>
       <c r="F275">
         <v>5.375</v>
@@ -8226,10 +8226,10 @@
         <v>0.15</v>
       </c>
       <c r="D276">
-        <v>5.7058823529411766</v>
+        <v>5.8</v>
       </c>
       <c r="E276">
-        <v>6.2941176470588234</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F276">
         <v>2.0625</v>
@@ -8249,10 +8249,10 @@
         <v>0.15</v>
       </c>
       <c r="D277">
-        <v>4.882352941176471</v>
+        <v>5</v>
       </c>
       <c r="E277">
-        <v>5.8235294117647056</v>
+        <v>5.8666666666666663</v>
       </c>
       <c r="F277">
         <v>2.125</v>
@@ -8272,10 +8272,10 @@
         <v>0.15</v>
       </c>
       <c r="D278">
-        <v>4.7647058823529411</v>
+        <v>4.8</v>
       </c>
       <c r="E278">
-        <v>5.6470588235294121</v>
+        <v>5.8</v>
       </c>
       <c r="F278">
         <v>1.625</v>
@@ -8295,10 +8295,10 @@
         <v>0.15</v>
       </c>
       <c r="D279">
-        <v>5.2941176470588234</v>
+        <v>5.2666666666666666</v>
       </c>
       <c r="E279">
-        <v>6.4117647058823533</v>
+        <v>6.4</v>
       </c>
       <c r="F279">
         <v>1.875</v>
@@ -8433,10 +8433,10 @@
         <v>0.15</v>
       </c>
       <c r="D285">
-        <v>6.2142857142857144</v>
+        <v>6.2</v>
       </c>
       <c r="E285">
-        <v>6.4285714285714288</v>
+        <v>6.4</v>
       </c>
       <c r="F285">
         <v>2.9375</v>
@@ -8456,10 +8456,10 @@
         <v>0.15</v>
       </c>
       <c r="D286">
-        <v>6.5</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="E286">
-        <v>6.6428571428571432</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F286">
         <v>5</v>
@@ -8479,10 +8479,10 @@
         <v>0.15</v>
       </c>
       <c r="D287">
-        <v>6.0714285714285712</v>
+        <v>6.0666666666666664</v>
       </c>
       <c r="E287">
-        <v>6.5714285714285712</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="F287">
         <v>3.375</v>
@@ -8502,10 +8502,10 @@
         <v>0.15</v>
       </c>
       <c r="D288">
-        <v>5.5714285714285712</v>
+        <v>5.5333333333333332</v>
       </c>
       <c r="E288">
-        <v>6.0714285714285712</v>
+        <v>6.1333333333333337</v>
       </c>
       <c r="F288">
         <v>3.5</v>
@@ -8525,10 +8525,10 @@
         <v>0.15</v>
       </c>
       <c r="D289">
-        <v>6.1428571428571432</v>
+        <v>6.2</v>
       </c>
       <c r="E289">
-        <v>6.5714285714285712</v>
+        <v>6.6</v>
       </c>
       <c r="F289">
         <v>6.1875</v>
@@ -8571,10 +8571,10 @@
         <v>0.16666700000000001</v>
       </c>
       <c r="D291">
-        <v>6</v>
+        <v>5.8666666666666663</v>
       </c>
       <c r="E291">
-        <v>6.3529411764705879</v>
+        <v>6.2666666666666666</v>
       </c>
       <c r="F291">
         <v>6.5625</v>
@@ -8594,10 +8594,10 @@
         <v>0.16666700000000001</v>
       </c>
       <c r="D292">
-        <v>6.4117647058823533</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="E292">
-        <v>6.7058823529411766</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F292">
         <v>1.6875</v>
@@ -8617,10 +8617,10 @@
         <v>0.16666700000000001</v>
       </c>
       <c r="D293">
-        <v>4.882352941176471</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="E293">
-        <v>5.9411764705882364</v>
+        <v>6.0666666666666664</v>
       </c>
       <c r="F293">
         <v>7.125</v>
@@ -8663,10 +8663,10 @@
         <v>0.16666700000000001</v>
       </c>
       <c r="D295">
-        <v>5.6</v>
+        <v>5.5333333333333332</v>
       </c>
       <c r="E295">
-        <v>6.4666666666666668</v>
+        <v>6.4</v>
       </c>
       <c r="F295">
         <v>3.8125</v>
@@ -8686,10 +8686,10 @@
         <v>0.16666700000000001</v>
       </c>
       <c r="D296">
-        <v>6.333333333333333</v>
+        <v>6.2666666666666666</v>
       </c>
       <c r="E296">
-        <v>6.5333333333333332</v>
+        <v>6.4666666666666668</v>
       </c>
       <c r="F296">
         <v>3.125</v>
@@ -8709,7 +8709,7 @@
         <v>0.16666700000000001</v>
       </c>
       <c r="D297">
-        <v>5.4666666666666668</v>
+        <v>5.4</v>
       </c>
       <c r="E297">
         <v>6.4</v>
@@ -8778,10 +8778,10 @@
         <v>0.2</v>
       </c>
       <c r="D300">
-        <v>5.6470588235294121</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="E300">
-        <v>5.9411764705882364</v>
+        <v>5.9333333333333336</v>
       </c>
       <c r="F300">
         <v>7.0625</v>
@@ -8801,10 +8801,10 @@
         <v>0.2</v>
       </c>
       <c r="D301">
-        <v>5.882352941176471</v>
+        <v>5.7333333333333334</v>
       </c>
       <c r="E301">
-        <v>6.4117647058823533</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F301">
         <v>3.4375</v>
@@ -8824,10 +8824,10 @@
         <v>0.2</v>
       </c>
       <c r="D302">
-        <v>5.2941176470588234</v>
+        <v>5.4</v>
       </c>
       <c r="E302">
-        <v>6</v>
+        <v>6.0666666666666664</v>
       </c>
       <c r="F302">
         <v>4.8125</v>
@@ -8847,10 +8847,10 @@
         <v>0.2</v>
       </c>
       <c r="D303">
-        <v>5.1764705882352944</v>
+        <v>5</v>
       </c>
       <c r="E303">
-        <v>5.6470588235294121</v>
+        <v>5.4666666666666668</v>
       </c>
       <c r="F303">
         <v>1.875</v>
@@ -8870,10 +8870,10 @@
         <v>0.2</v>
       </c>
       <c r="D304">
-        <v>5.2352941176470589</v>
+        <v>5.4666666666666668</v>
       </c>
       <c r="E304">
-        <v>6</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F304">
         <v>6.875</v>
@@ -8893,10 +8893,10 @@
         <v>0.2</v>
       </c>
       <c r="D305">
-        <v>5.0588235294117636</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="E305">
-        <v>5.7647058823529411</v>
+        <v>5.8666666666666663</v>
       </c>
       <c r="F305">
         <v>6.3125</v>
@@ -8916,10 +8916,10 @@
         <v>0.2</v>
       </c>
       <c r="D306">
-        <v>5.7058823529411766</v>
+        <v>5.5333333333333332</v>
       </c>
       <c r="E306">
-        <v>6.1764705882352944</v>
+        <v>6.0666666666666664</v>
       </c>
       <c r="F306">
         <v>2.5625</v>
@@ -8939,10 +8939,10 @@
         <v>0.2</v>
       </c>
       <c r="D307">
-        <v>5.6470588235294121</v>
+        <v>5.4666666666666668</v>
       </c>
       <c r="E307">
-        <v>6.0588235294117636</v>
+        <v>5.9333333333333336</v>
       </c>
       <c r="F307">
         <v>1.9375</v>
@@ -8962,10 +8962,10 @@
         <v>0.2</v>
       </c>
       <c r="D308">
-        <v>6.4705882352941178</v>
+        <v>6.4</v>
       </c>
       <c r="E308">
-        <v>6.6470588235294121</v>
+        <v>6.6</v>
       </c>
       <c r="F308">
         <v>2.8125</v>
@@ -8985,10 +8985,10 @@
         <v>0.2</v>
       </c>
       <c r="D309">
-        <v>4.7058823529411766</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="E309">
-        <v>5.7058823529411766</v>
+        <v>5.8666666666666663</v>
       </c>
       <c r="F309">
         <v>6.5625</v>
@@ -9008,10 +9008,10 @@
         <v>0.2</v>
       </c>
       <c r="D310">
-        <v>4.1764705882352944</v>
+        <v>4.2666666666666666</v>
       </c>
       <c r="E310">
-        <v>5.6470588235294121</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="F310">
         <v>2.0625</v>
@@ -9031,10 +9031,10 @@
         <v>0.2</v>
       </c>
       <c r="D311">
-        <v>5.1764705882352944</v>
+        <v>5.1333333333333337</v>
       </c>
       <c r="E311">
-        <v>6.3529411764705879</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F311">
         <v>7.125</v>
@@ -9054,10 +9054,10 @@
         <v>0.2</v>
       </c>
       <c r="D312">
-        <v>5.4705882352941178</v>
+        <v>5.2666666666666666</v>
       </c>
       <c r="E312">
-        <v>6.4117647058823533</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F312">
         <v>7</v>
@@ -9077,10 +9077,10 @@
         <v>0.2</v>
       </c>
       <c r="D313">
-        <v>6.117647058823529</v>
+        <v>6</v>
       </c>
       <c r="E313">
-        <v>6.8235294117647056</v>
+        <v>6.8</v>
       </c>
       <c r="F313">
         <v>5.375</v>
@@ -9100,10 +9100,10 @@
         <v>0.2</v>
       </c>
       <c r="D314">
-        <v>6.1764705882352944</v>
+        <v>6.2</v>
       </c>
       <c r="E314">
-        <v>6.4117647058823533</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="F314">
         <v>2.75</v>
@@ -9123,10 +9123,10 @@
         <v>0.2</v>
       </c>
       <c r="D315">
-        <v>5.2352941176470589</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="E315">
-        <v>6.1764705882352944</v>
+        <v>6.2</v>
       </c>
       <c r="F315">
         <v>6.6875</v>
@@ -9146,10 +9146,10 @@
         <v>0.2</v>
       </c>
       <c r="D316">
-        <v>4.882352941176471</v>
+        <v>5.1333333333333337</v>
       </c>
       <c r="E316">
-        <v>5.6470588235294121</v>
+        <v>5.8666666666666663</v>
       </c>
       <c r="F316">
         <v>2.5625</v>
@@ -9169,10 +9169,10 @@
         <v>0.2</v>
       </c>
       <c r="D317">
-        <v>5.882352941176471</v>
+        <v>6</v>
       </c>
       <c r="E317">
-        <v>6.0588235294117636</v>
+        <v>5.9333333333333336</v>
       </c>
       <c r="F317">
         <v>2.9375</v>
@@ -9192,10 +9192,10 @@
         <v>0.2</v>
       </c>
       <c r="D318">
-        <v>5</v>
+        <v>4.7333333333333334</v>
       </c>
       <c r="E318">
-        <v>5.4117647058823533</v>
+        <v>5.2666666666666666</v>
       </c>
       <c r="F318">
         <v>2.625</v>
@@ -9215,10 +9215,10 @@
         <v>0.2</v>
       </c>
       <c r="D319">
-        <v>6.117647058823529</v>
+        <v>6.2666666666666666</v>
       </c>
       <c r="E319">
-        <v>6.5882352941176467</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F319">
         <v>2.3125</v>
@@ -9238,10 +9238,10 @@
         <v>0.2</v>
       </c>
       <c r="D320">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E320">
-        <v>4.4705882352941178</v>
+        <v>4.8666666666666663</v>
       </c>
       <c r="F320">
         <v>2.125</v>
@@ -9491,10 +9491,10 @@
         <v>0.2</v>
       </c>
       <c r="D331">
-        <v>5.5714285714285712</v>
+        <v>5.4666666666666668</v>
       </c>
       <c r="E331">
-        <v>6.4285714285714288</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F331">
         <v>5</v>
@@ -9514,10 +9514,10 @@
         <v>0.2</v>
       </c>
       <c r="D332">
-        <v>5.7857142857142856</v>
+        <v>5.8666666666666663</v>
       </c>
       <c r="E332">
-        <v>6.3571428571428568</v>
+        <v>6.4</v>
       </c>
       <c r="F332">
         <v>4.6875</v>
@@ -9537,10 +9537,10 @@
         <v>0.2</v>
       </c>
       <c r="D333">
-        <v>6.2142857142857144</v>
+        <v>6.2</v>
       </c>
       <c r="E333">
-        <v>6.5714285714285712</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="F333">
         <v>2.625</v>
@@ -9560,10 +9560,10 @@
         <v>0.2</v>
       </c>
       <c r="D334">
-        <v>5.4285714285714288</v>
+        <v>5.4666666666666668</v>
       </c>
       <c r="E334">
-        <v>6.0714285714285712</v>
+        <v>6.0666666666666664</v>
       </c>
       <c r="F334">
         <v>5.1875</v>
@@ -9583,10 +9583,10 @@
         <v>0.2</v>
       </c>
       <c r="D335">
-        <v>6.5714285714285712</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="E335">
-        <v>6.6428571428571432</v>
+        <v>6.6</v>
       </c>
       <c r="F335">
         <v>4.5625</v>
@@ -9606,10 +9606,10 @@
         <v>0.2</v>
       </c>
       <c r="D336">
-        <v>6.0714285714285712</v>
+        <v>6.0666666666666664</v>
       </c>
       <c r="E336">
-        <v>6.4285714285714288</v>
+        <v>6.4666666666666668</v>
       </c>
       <c r="F336">
         <v>4.75</v>
@@ -9629,10 +9629,10 @@
         <v>0.2</v>
       </c>
       <c r="D337">
-        <v>6.5714285714285712</v>
+        <v>6.6</v>
       </c>
       <c r="E337">
-        <v>6.6428571428571432</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F337">
         <v>4.625</v>
@@ -9652,10 +9652,10 @@
         <v>0.2</v>
       </c>
       <c r="D338">
-        <v>5.3571428571428568</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="E338">
-        <v>6.4285714285714288</v>
+        <v>6.4</v>
       </c>
       <c r="F338">
         <v>5.25</v>
@@ -9675,10 +9675,10 @@
         <v>0.2</v>
       </c>
       <c r="D339">
-        <v>3.4285714285714279</v>
+        <v>3.4</v>
       </c>
       <c r="E339">
-        <v>4.9285714285714288</v>
+        <v>4.9333333333333336</v>
       </c>
       <c r="F339">
         <v>2.125</v>
@@ -9698,10 +9698,10 @@
         <v>0.2</v>
       </c>
       <c r="D340">
-        <v>5.2857142857142856</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="E340">
-        <v>6.0714285714285712</v>
+        <v>6.1333333333333337</v>
       </c>
       <c r="F340">
         <v>5.875</v>
@@ -9721,10 +9721,10 @@
         <v>0.2</v>
       </c>
       <c r="D341">
-        <v>5.6428571428571432</v>
+        <v>5.7333333333333334</v>
       </c>
       <c r="E341">
-        <v>6.2142857142857144</v>
+        <v>6.2666666666666666</v>
       </c>
       <c r="F341">
         <v>4.5625</v>
@@ -9744,10 +9744,10 @@
         <v>0.2</v>
       </c>
       <c r="D342">
-        <v>3.214285714285714</v>
+        <v>3.1333333333333329</v>
       </c>
       <c r="E342">
-        <v>3.785714285714286</v>
+        <v>3.6</v>
       </c>
       <c r="F342">
         <v>6.1875</v>
@@ -9770,7 +9770,7 @@
         <v>6.333333333333333</v>
       </c>
       <c r="E343">
-        <v>6.4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F343">
         <v>4.875</v>
@@ -9790,10 +9790,10 @@
         <v>0.2</v>
       </c>
       <c r="D344">
-        <v>6.4666666666666668</v>
+        <v>6.4</v>
       </c>
       <c r="E344">
-        <v>6.7333333333333334</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F344">
         <v>4.9375</v>
@@ -9813,10 +9813,10 @@
         <v>0.2</v>
       </c>
       <c r="D345">
-        <v>6.4666666666666668</v>
+        <v>6.4</v>
       </c>
       <c r="E345">
-        <v>6.7333333333333334</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F345">
         <v>5.9375</v>
@@ -9839,7 +9839,7 @@
         <v>6.0666666666666664</v>
       </c>
       <c r="E346">
-        <v>6.666666666666667</v>
+        <v>6.6</v>
       </c>
       <c r="F346">
         <v>6.5</v>
@@ -9882,10 +9882,10 @@
         <v>0.2</v>
       </c>
       <c r="D348">
-        <v>6.0666666666666664</v>
+        <v>6</v>
       </c>
       <c r="E348">
-        <v>6.333333333333333</v>
+        <v>6.2666666666666666</v>
       </c>
       <c r="F348">
         <v>2.875</v>
@@ -9905,10 +9905,10 @@
         <v>0.2</v>
       </c>
       <c r="D349">
-        <v>6.4666666666666668</v>
+        <v>6.4</v>
       </c>
       <c r="E349">
-        <v>6.7333333333333334</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F349">
         <v>2.4375</v>
@@ -9928,10 +9928,10 @@
         <v>0.2</v>
       </c>
       <c r="D350">
-        <v>5.9333333333333336</v>
+        <v>5.8</v>
       </c>
       <c r="E350">
-        <v>6.666666666666667</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="F350">
         <v>2.8125</v>
@@ -9951,10 +9951,10 @@
         <v>0.2</v>
       </c>
       <c r="D351">
-        <v>5.8666666666666663</v>
+        <v>5.7333333333333334</v>
       </c>
       <c r="E351">
-        <v>6.2666666666666666</v>
+        <v>6.2</v>
       </c>
       <c r="F351">
         <v>2.25</v>
@@ -9974,10 +9974,10 @@
         <v>0.2</v>
       </c>
       <c r="D352">
-        <v>5.7333333333333334</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="E352">
-        <v>6.4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F352">
         <v>4.75</v>
@@ -9997,10 +9997,10 @@
         <v>0.2</v>
       </c>
       <c r="D353">
-        <v>5.333333333333333</v>
+        <v>5.2666666666666666</v>
       </c>
       <c r="E353">
-        <v>6.0666666666666664</v>
+        <v>6</v>
       </c>
       <c r="F353">
         <v>3.4375</v>
@@ -10020,10 +10020,10 @@
         <v>0.2</v>
       </c>
       <c r="D354">
-        <v>6.4666666666666668</v>
+        <v>6.4</v>
       </c>
       <c r="E354">
-        <v>6.666666666666667</v>
+        <v>6.6</v>
       </c>
       <c r="F354">
         <v>2.5625</v>
@@ -10043,10 +10043,10 @@
         <v>0.222222</v>
       </c>
       <c r="D355">
-        <v>6.0588235294117636</v>
+        <v>5.9333333333333336</v>
       </c>
       <c r="E355">
-        <v>6.7058823529411766</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F355">
         <v>1.875</v>
@@ -10066,10 +10066,10 @@
         <v>0.222222</v>
       </c>
       <c r="D356">
-        <v>5.882352941176471</v>
+        <v>5.7333333333333334</v>
       </c>
       <c r="E356">
-        <v>6.2941176470588234</v>
+        <v>6.2</v>
       </c>
       <c r="F356">
         <v>6.9375</v>
@@ -10112,10 +10112,10 @@
         <v>0.222222</v>
       </c>
       <c r="D358">
-        <v>6.2857142857142856</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="E358">
-        <v>6.6428571428571432</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F358">
         <v>6.125</v>
@@ -10135,10 +10135,10 @@
         <v>0.222222</v>
       </c>
       <c r="D359">
-        <v>5.8</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="E359">
-        <v>6.333333333333333</v>
+        <v>6.2</v>
       </c>
       <c r="F359">
         <v>2.875</v>
@@ -10158,7 +10158,7 @@
         <v>0.25</v>
       </c>
       <c r="D360">
-        <v>6.4666666666666668</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="E360">
         <v>6.6</v>
@@ -10181,10 +10181,10 @@
         <v>0.25</v>
       </c>
       <c r="D361">
-        <v>6.6</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="E361">
-        <v>6.6</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="F361">
         <v>4.25</v>
@@ -10296,10 +10296,10 @@
         <v>0.73333300000000001</v>
       </c>
       <c r="D366">
-        <v>6.2941176470588234</v>
+        <v>6.2</v>
       </c>
       <c r="E366">
-        <v>6.7058823529411766</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F366">
         <v>3.125</v>
@@ -10319,10 +10319,10 @@
         <v>0.73333300000000001</v>
       </c>
       <c r="D367">
-        <v>5.1764705882352944</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="E367">
-        <v>6.0588235294117636</v>
+        <v>6.2666666666666666</v>
       </c>
       <c r="F367">
         <v>5.9375</v>
@@ -10342,10 +10342,10 @@
         <v>0.73333300000000001</v>
       </c>
       <c r="D368">
-        <v>6.4117647058823533</v>
+        <v>6.4</v>
       </c>
       <c r="E368">
-        <v>6.4117647058823533</v>
+        <v>6.4</v>
       </c>
       <c r="F368">
         <v>3</v>
@@ -10434,10 +10434,10 @@
         <v>0.73333300000000001</v>
       </c>
       <c r="D372">
-        <v>6.5</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="E372">
-        <v>6.4285714285714288</v>
+        <v>6.4666666666666668</v>
       </c>
       <c r="F372">
         <v>2.75</v>
@@ -10457,10 +10457,10 @@
         <v>0.73333300000000001</v>
       </c>
       <c r="D373">
-        <v>6.3571428571428568</v>
+        <v>6.4</v>
       </c>
       <c r="E373">
-        <v>6.4285714285714288</v>
+        <v>6.4666666666666668</v>
       </c>
       <c r="F373">
         <v>5.875</v>
@@ -10480,10 +10480,10 @@
         <v>0.73333300000000001</v>
       </c>
       <c r="D374">
-        <v>6.6428571428571432</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="E374">
-        <v>6.6428571428571432</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F374">
         <v>6.5</v>
@@ -10503,10 +10503,10 @@
         <v>0.73333300000000001</v>
       </c>
       <c r="D375">
-        <v>6.1428571428571432</v>
+        <v>6.1333333333333337</v>
       </c>
       <c r="E375">
-        <v>6.5</v>
+        <v>6.4666666666666668</v>
       </c>
       <c r="F375">
         <v>2.9375</v>
@@ -10526,10 +10526,10 @@
         <v>0.73333300000000001</v>
       </c>
       <c r="D376">
-        <v>6.0714285714285712</v>
+        <v>6.0666666666666664</v>
       </c>
       <c r="E376">
-        <v>6.5714285714285712</v>
+        <v>6.6</v>
       </c>
       <c r="F376">
         <v>3.75</v>
@@ -10549,10 +10549,10 @@
         <v>0.73333300000000001</v>
       </c>
       <c r="D377">
-        <v>6.0714285714285712</v>
+        <v>6.0666666666666664</v>
       </c>
       <c r="E377">
-        <v>6.1428571428571432</v>
+        <v>6.2</v>
       </c>
       <c r="F377">
         <v>6.0625</v>
@@ -10572,10 +10572,10 @@
         <v>0.73333300000000001</v>
       </c>
       <c r="D378">
-        <v>6.3571428571428568</v>
+        <v>6.4</v>
       </c>
       <c r="E378">
-        <v>6.5</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="F378">
         <v>2.3125</v>
@@ -10618,10 +10618,10 @@
         <v>0.75</v>
       </c>
       <c r="D380">
-        <v>6.2352941176470589</v>
+        <v>6.2</v>
       </c>
       <c r="E380">
-        <v>6.6470588235294121</v>
+        <v>6.6</v>
       </c>
       <c r="F380">
         <v>2.125</v>
@@ -10641,10 +10641,10 @@
         <v>0.75</v>
       </c>
       <c r="D381">
-        <v>6.1764705882352944</v>
+        <v>6.0666666666666664</v>
       </c>
       <c r="E381">
-        <v>6.2941176470588234</v>
+        <v>6.2</v>
       </c>
       <c r="F381">
         <v>7.375</v>
@@ -10664,10 +10664,10 @@
         <v>0.75</v>
       </c>
       <c r="D382">
-        <v>6.3529411764705879</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="E382">
-        <v>6.4117647058823533</v>
+        <v>6.4</v>
       </c>
       <c r="F382">
         <v>5.3125</v>
@@ -10802,10 +10802,10 @@
         <v>0.75</v>
       </c>
       <c r="D388">
-        <v>6.0714285714285712</v>
+        <v>6.1333333333333337</v>
       </c>
       <c r="E388">
-        <v>6.3571428571428568</v>
+        <v>6.4</v>
       </c>
       <c r="F388">
         <v>5.75</v>
@@ -10825,10 +10825,10 @@
         <v>0.75</v>
       </c>
       <c r="D389">
-        <v>5.0714285714285712</v>
+        <v>5.1333333333333337</v>
       </c>
       <c r="E389">
-        <v>5.6428571428571432</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="F389">
         <v>6.125</v>
@@ -10848,10 +10848,10 @@
         <v>0.75</v>
       </c>
       <c r="D390">
-        <v>6.2142857142857144</v>
+        <v>6.2666666666666666</v>
       </c>
       <c r="E390">
-        <v>6.5</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="F390">
         <v>3</v>
@@ -10871,10 +10871,10 @@
         <v>0.75</v>
       </c>
       <c r="D391">
-        <v>6</v>
+        <v>6.0666666666666664</v>
       </c>
       <c r="E391">
-        <v>6.2857142857142856</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F391">
         <v>5.9375</v>
@@ -10894,10 +10894,10 @@
         <v>0.75</v>
       </c>
       <c r="D392">
-        <v>6.3571428571428568</v>
+        <v>6.4</v>
       </c>
       <c r="E392">
-        <v>6.5714285714285712</v>
+        <v>6.6</v>
       </c>
       <c r="F392">
         <v>5.625</v>
@@ -10917,10 +10917,10 @@
         <v>0.75</v>
       </c>
       <c r="D393">
-        <v>6.3571428571428568</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="E393">
-        <v>6.7857142857142856</v>
+        <v>6.8</v>
       </c>
       <c r="F393">
         <v>5.875</v>
@@ -10940,7 +10940,7 @@
         <v>0.75</v>
       </c>
       <c r="D394">
-        <v>6.666666666666667</v>
+        <v>6.6</v>
       </c>
       <c r="E394">
         <v>6.7333333333333334</v>
@@ -10963,7 +10963,7 @@
         <v>0.75</v>
       </c>
       <c r="D395">
-        <v>6.2</v>
+        <v>6.1333333333333337</v>
       </c>
       <c r="E395">
         <v>6.4</v>
@@ -10986,10 +10986,10 @@
         <v>0.75</v>
       </c>
       <c r="D396">
-        <v>6.666666666666667</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="E396">
-        <v>6.666666666666667</v>
+        <v>6.6</v>
       </c>
       <c r="F396">
         <v>2.5</v>
@@ -11035,7 +11035,7 @@
         <v>6.2666666666666666</v>
       </c>
       <c r="E398">
-        <v>6.7333333333333334</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F398">
         <v>6.3125</v>
@@ -11101,10 +11101,10 @@
         <v>0.75</v>
       </c>
       <c r="D401">
-        <v>6.5333333333333332</v>
+        <v>6.4666666666666668</v>
       </c>
       <c r="E401">
-        <v>6.7333333333333334</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F401">
         <v>4.6875</v>
@@ -11124,10 +11124,10 @@
         <v>0.75</v>
       </c>
       <c r="D402">
-        <v>6.2</v>
+        <v>6.0666666666666664</v>
       </c>
       <c r="E402">
-        <v>6.6</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="F402">
         <v>6.5625</v>
@@ -11170,10 +11170,10 @@
         <v>0.75</v>
       </c>
       <c r="D404">
-        <v>6.7333333333333334</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="E404">
-        <v>6.6</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="F404">
         <v>7.25</v>
@@ -11193,10 +11193,10 @@
         <v>0.75</v>
       </c>
       <c r="D405">
-        <v>6.0666666666666664</v>
+        <v>5.9333333333333336</v>
       </c>
       <c r="E405">
-        <v>6.4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F405">
         <v>1.875</v>
@@ -11216,10 +11216,10 @@
         <v>0.75</v>
       </c>
       <c r="D406">
-        <v>5.666666666666667</v>
+        <v>5.5333333333333332</v>
       </c>
       <c r="E406">
-        <v>6.5333333333333332</v>
+        <v>6.4</v>
       </c>
       <c r="F406">
         <v>2.875</v>
@@ -11239,10 +11239,10 @@
         <v>0.8</v>
       </c>
       <c r="D407">
-        <v>6.4705882352941178</v>
+        <v>6.4666666666666668</v>
       </c>
       <c r="E407">
-        <v>6.2352941176470589</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F407">
         <v>4.9375</v>
@@ -11262,10 +11262,10 @@
         <v>0.8</v>
       </c>
       <c r="D408">
-        <v>6.5294117647058822</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="E408">
-        <v>6.7647058823529411</v>
+        <v>6.7333333333333334</v>
       </c>
       <c r="F408">
         <v>5.5625</v>
@@ -11285,10 +11285,10 @@
         <v>0.8</v>
       </c>
       <c r="D409">
-        <v>6.5294117647058822</v>
+        <v>6.4666666666666668</v>
       </c>
       <c r="E409">
-        <v>6.4117647058823533</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F409">
         <v>4.8125</v>
@@ -11308,10 +11308,10 @@
         <v>0.8</v>
       </c>
       <c r="D410">
-        <v>6.117647058823529</v>
+        <v>6</v>
       </c>
       <c r="E410">
-        <v>6.3529411764705879</v>
+        <v>6.2666666666666666</v>
       </c>
       <c r="F410">
         <v>1.6875</v>
@@ -11331,7 +11331,7 @@
         <v>0.8</v>
       </c>
       <c r="D411">
-        <v>5.8235294117647056</v>
+        <v>5.7333333333333334</v>
       </c>
       <c r="E411">
         <v>6</v>
@@ -11354,10 +11354,10 @@
         <v>0.8</v>
       </c>
       <c r="D412">
-        <v>5.5294117647058822</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="E412">
-        <v>5.5294117647058822</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="F412">
         <v>4.8125</v>
@@ -11377,10 +11377,10 @@
         <v>0.8</v>
       </c>
       <c r="D413">
-        <v>6.4705882352941178</v>
+        <v>6.4</v>
       </c>
       <c r="E413">
-        <v>6.7647058823529411</v>
+        <v>6.7333333333333334</v>
       </c>
       <c r="F413">
         <v>4.125</v>
@@ -11400,10 +11400,10 @@
         <v>0.8</v>
       </c>
       <c r="D414">
-        <v>5.8235294117647056</v>
+        <v>5.9333333333333336</v>
       </c>
       <c r="E414">
-        <v>6.0588235294117636</v>
+        <v>6</v>
       </c>
       <c r="F414">
         <v>6</v>
@@ -11423,10 +11423,10 @@
         <v>0.8</v>
       </c>
       <c r="D415">
-        <v>5.3529411764705879</v>
+        <v>5.2</v>
       </c>
       <c r="E415">
-        <v>5.9411764705882364</v>
+        <v>5.8</v>
       </c>
       <c r="F415">
         <v>3.8125</v>
@@ -11446,10 +11446,10 @@
         <v>0.8</v>
       </c>
       <c r="D416">
-        <v>6.2941176470588234</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="E416">
-        <v>6.2352941176470589</v>
+        <v>6.2</v>
       </c>
       <c r="F416">
         <v>5.9375</v>
@@ -11472,7 +11472,7 @@
         <v>6</v>
       </c>
       <c r="E417">
-        <v>6.2941176470588234</v>
+        <v>6.2</v>
       </c>
       <c r="F417">
         <v>7.125</v>
@@ -11492,10 +11492,10 @@
         <v>0.8</v>
       </c>
       <c r="D418">
-        <v>6.6470588235294121</v>
+        <v>6.6</v>
       </c>
       <c r="E418">
-        <v>6.4705882352941178</v>
+        <v>6.4</v>
       </c>
       <c r="F418">
         <v>2.0625</v>
@@ -11515,10 +11515,10 @@
         <v>0.8</v>
       </c>
       <c r="D419">
-        <v>5.5882352941176467</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="E419">
-        <v>6.2941176470588234</v>
+        <v>6.2666666666666666</v>
       </c>
       <c r="F419">
         <v>6.3125</v>
@@ -11653,10 +11653,10 @@
         <v>0.8</v>
       </c>
       <c r="D425">
-        <v>5.7857142857142856</v>
+        <v>5.8</v>
       </c>
       <c r="E425">
-        <v>6.3571428571428568</v>
+        <v>6.4</v>
       </c>
       <c r="F425">
         <v>6.4375</v>
@@ -11676,10 +11676,10 @@
         <v>0.8</v>
       </c>
       <c r="D426">
-        <v>6.1428571428571432</v>
+        <v>6.2</v>
       </c>
       <c r="E426">
-        <v>6.4285714285714288</v>
+        <v>6.4666666666666668</v>
       </c>
       <c r="F426">
         <v>4.8125</v>
@@ -11699,10 +11699,10 @@
         <v>0.8</v>
       </c>
       <c r="D427">
-        <v>6.3571428571428568</v>
+        <v>6.4</v>
       </c>
       <c r="E427">
-        <v>6.6428571428571432</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F427">
         <v>7.125</v>
@@ -11722,10 +11722,10 @@
         <v>0.8</v>
       </c>
       <c r="D428">
-        <v>6.2857142857142856</v>
+        <v>6.2</v>
       </c>
       <c r="E428">
-        <v>6.5714285714285712</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="F428">
         <v>4.5625</v>
@@ -11745,10 +11745,10 @@
         <v>0.8</v>
       </c>
       <c r="D429">
-        <v>5.9285714285714288</v>
+        <v>6</v>
       </c>
       <c r="E429">
-        <v>6.3571428571428568</v>
+        <v>6.4</v>
       </c>
       <c r="F429">
         <v>6.3125</v>
@@ -11768,10 +11768,10 @@
         <v>0.8</v>
       </c>
       <c r="D430">
-        <v>5.5</v>
+        <v>5.5333333333333332</v>
       </c>
       <c r="E430">
-        <v>5.6428571428571432</v>
+        <v>5.7333333333333334</v>
       </c>
       <c r="F430">
         <v>6.5625</v>
@@ -11791,10 +11791,10 @@
         <v>0.8</v>
       </c>
       <c r="D431">
-        <v>6.5333333333333332</v>
+        <v>6.4666666666666668</v>
       </c>
       <c r="E431">
-        <v>6.7333333333333334</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F431">
         <v>2.1875</v>
@@ -11814,7 +11814,7 @@
         <v>0.8</v>
       </c>
       <c r="D432">
-        <v>5.8666666666666663</v>
+        <v>5.8</v>
       </c>
       <c r="E432">
         <v>6.2666666666666666</v>
@@ -11860,7 +11860,7 @@
         <v>0.8</v>
       </c>
       <c r="D434">
-        <v>6.666666666666667</v>
+        <v>6.6</v>
       </c>
       <c r="E434">
         <v>6.8</v>
@@ -11906,10 +11906,10 @@
         <v>0.8</v>
       </c>
       <c r="D436">
-        <v>6.7333333333333334</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="E436">
-        <v>6.7333333333333334</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F436">
         <v>4.8125</v>
@@ -11929,10 +11929,10 @@
         <v>0.8</v>
       </c>
       <c r="D437">
+        <v>6.4</v>
+      </c>
+      <c r="E437">
         <v>6.4666666666666668</v>
-      </c>
-      <c r="E437">
-        <v>6.5333333333333332</v>
       </c>
       <c r="F437">
         <v>5.5625</v>
@@ -11998,10 +11998,10 @@
         <v>0.8125</v>
       </c>
       <c r="D440">
-        <v>6.2142857142857144</v>
+        <v>6.2</v>
       </c>
       <c r="E440">
-        <v>6.4285714285714288</v>
+        <v>6.4666666666666668</v>
       </c>
       <c r="F440">
         <v>6.0625</v>
@@ -12090,10 +12090,10 @@
         <v>0.83333299999999999</v>
       </c>
       <c r="D444">
-        <v>6.4285714285714288</v>
+        <v>6.4666666666666668</v>
       </c>
       <c r="E444">
-        <v>6.5714285714285712</v>
+        <v>6.6</v>
       </c>
       <c r="F444">
         <v>6.3125</v>
@@ -12136,10 +12136,10 @@
         <v>0.85</v>
       </c>
       <c r="D446">
-        <v>6.2352941176470589</v>
+        <v>6.2666666666666666</v>
       </c>
       <c r="E446">
-        <v>6.4705882352941178</v>
+        <v>6.4</v>
       </c>
       <c r="F446">
         <v>7.0625</v>
@@ -12159,10 +12159,10 @@
         <v>0.85</v>
       </c>
       <c r="D447">
-        <v>6.3529411764705879</v>
+        <v>6.2666666666666666</v>
       </c>
       <c r="E447">
-        <v>6.4117647058823533</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F447">
         <v>5.375</v>
@@ -12182,10 +12182,10 @@
         <v>0.85</v>
       </c>
       <c r="D448">
-        <v>6.117647058823529</v>
+        <v>6</v>
       </c>
       <c r="E448">
-        <v>6.4705882352941178</v>
+        <v>6.4</v>
       </c>
       <c r="F448">
         <v>4.5625</v>
@@ -12205,10 +12205,10 @@
         <v>0.85</v>
       </c>
       <c r="D449">
-        <v>5.7058823529411766</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="E449">
-        <v>6.5882352941176467</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="F449">
         <v>5.25</v>
@@ -12297,10 +12297,10 @@
         <v>0.85</v>
       </c>
       <c r="D453">
-        <v>6.6428571428571432</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="E453">
-        <v>6.7142857142857144</v>
+        <v>6.7333333333333334</v>
       </c>
       <c r="F453">
         <v>2.1875</v>
@@ -12320,10 +12320,10 @@
         <v>0.85</v>
       </c>
       <c r="D454">
-        <v>6.3571428571428568</v>
+        <v>6.4</v>
       </c>
       <c r="E454">
-        <v>6.5</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="F454">
         <v>4.0625</v>
@@ -12343,10 +12343,10 @@
         <v>0.85</v>
       </c>
       <c r="D455">
-        <v>6.6428571428571432</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="E455">
-        <v>6.6428571428571432</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F455">
         <v>6.375</v>
@@ -12366,10 +12366,10 @@
         <v>0.85</v>
       </c>
       <c r="D456">
-        <v>6.5</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="E456">
-        <v>6.7142857142857144</v>
+        <v>6.7333333333333334</v>
       </c>
       <c r="F456">
         <v>4.625</v>
@@ -12412,10 +12412,10 @@
         <v>0.86666699999999997</v>
       </c>
       <c r="D458">
-        <v>6.2941176470588234</v>
+        <v>6.2</v>
       </c>
       <c r="E458">
-        <v>6.4705882352941178</v>
+        <v>6.4</v>
       </c>
       <c r="F458">
         <v>2.9375</v>
@@ -12435,10 +12435,10 @@
         <v>0.86666699999999997</v>
       </c>
       <c r="D459">
-        <v>5.9411764705882364</v>
+        <v>6</v>
       </c>
       <c r="E459">
-        <v>6.1764705882352944</v>
+        <v>6.0666666666666664</v>
       </c>
       <c r="F459">
         <v>2.0625</v>
@@ -12458,10 +12458,10 @@
         <v>0.86666699999999997</v>
       </c>
       <c r="D460">
-        <v>6.4117647058823533</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="E460">
-        <v>6.2941176470588234</v>
+        <v>6.2</v>
       </c>
       <c r="F460">
         <v>2.5</v>
@@ -12481,10 +12481,10 @@
         <v>0.86666699999999997</v>
       </c>
       <c r="D461">
-        <v>5.882352941176471</v>
+        <v>5.7333333333333334</v>
       </c>
       <c r="E461">
-        <v>6.4117647058823533</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F461">
         <v>4.3125</v>
@@ -12642,10 +12642,10 @@
         <v>0.86666699999999997</v>
       </c>
       <c r="D468">
-        <v>6.4285714285714288</v>
+        <v>6.4666666666666668</v>
       </c>
       <c r="E468">
-        <v>6.6428571428571432</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F468">
         <v>5.4375</v>
@@ -12665,10 +12665,10 @@
         <v>0.86666699999999997</v>
       </c>
       <c r="D469">
-        <v>6.2857142857142856</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="E469">
-        <v>6.5714285714285712</v>
+        <v>6.6</v>
       </c>
       <c r="F469">
         <v>6.5625</v>
@@ -12688,10 +12688,10 @@
         <v>0.86666699999999997</v>
       </c>
       <c r="D470">
-        <v>6.2142857142857144</v>
+        <v>6.2666666666666666</v>
       </c>
       <c r="E470">
-        <v>6.2857142857142856</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F470">
         <v>5.8125</v>
@@ -12711,10 +12711,10 @@
         <v>0.86666699999999997</v>
       </c>
       <c r="D471">
-        <v>6.3571428571428568</v>
+        <v>6.4</v>
       </c>
       <c r="E471">
-        <v>6.6428571428571432</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F471">
         <v>2.875</v>
@@ -12734,10 +12734,10 @@
         <v>0.86666699999999997</v>
       </c>
       <c r="D472">
-        <v>6.5714285714285712</v>
+        <v>6.6</v>
       </c>
       <c r="E472">
-        <v>6.6428571428571432</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F472">
         <v>2.25</v>
@@ -12757,7 +12757,7 @@
         <v>0.86666699999999997</v>
       </c>
       <c r="D473">
-        <v>6.5333333333333332</v>
+        <v>6.4666666666666668</v>
       </c>
       <c r="E473">
         <v>6.4666666666666668</v>
@@ -12780,10 +12780,10 @@
         <v>0.86666699999999997</v>
       </c>
       <c r="D474">
-        <v>6.333333333333333</v>
+        <v>6.0666666666666664</v>
       </c>
       <c r="E474">
-        <v>6.4666666666666668</v>
+        <v>6.2666666666666666</v>
       </c>
       <c r="F474">
         <v>1.5625</v>
@@ -12826,10 +12826,10 @@
         <v>0.86666699999999997</v>
       </c>
       <c r="D476">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="E476">
         <v>6.7333333333333334</v>
-      </c>
-      <c r="E476">
-        <v>6.8</v>
       </c>
       <c r="F476">
         <v>3.125</v>
@@ -12849,10 +12849,10 @@
         <v>0.86666699999999997</v>
       </c>
       <c r="D477">
+        <v>6.4</v>
+      </c>
+      <c r="E477">
         <v>6.5333333333333332</v>
-      </c>
-      <c r="E477">
-        <v>6.666666666666667</v>
       </c>
       <c r="F477">
         <v>2.4375</v>
@@ -12872,10 +12872,10 @@
         <v>0.86666699999999997</v>
       </c>
       <c r="D478">
-        <v>6.4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="E478">
-        <v>6.7333333333333334</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F478">
         <v>5.4375</v>
@@ -12918,10 +12918,10 @@
         <v>0.86666699999999997</v>
       </c>
       <c r="D480">
-        <v>5.9333333333333336</v>
+        <v>5.8</v>
       </c>
       <c r="E480">
-        <v>6.2666666666666666</v>
+        <v>6.1333333333333337</v>
       </c>
       <c r="F480">
         <v>5.9375</v>
@@ -12941,10 +12941,10 @@
         <v>0.875</v>
       </c>
       <c r="D481">
-        <v>6.4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="E481">
-        <v>6.666666666666667</v>
+        <v>6.6</v>
       </c>
       <c r="F481">
         <v>5.125</v>
